--- a/USR002orders.xlsx
+++ b/USR002orders.xlsx
@@ -424,20 +424,20 @@
         <v>USR002</v>
       </c>
       <c r="B2" t="str">
-        <v>ORD049</v>
+        <v>ORD061</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
-        <v>PDT002</v>
+        <v>PDT001</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="E4">
-        <v>6495</v>
+        <v>19485</v>
       </c>
     </row>
   </sheetData>

--- a/USR002orders.xlsx
+++ b/USR002orders.xlsx
@@ -424,7 +424,7 @@
         <v>USR002</v>
       </c>
       <c r="B2" t="str">
-        <v>ORD061</v>
+        <v>ORD064</v>
       </c>
     </row>
     <row r="3">
@@ -432,12 +432,12 @@
         <v>PDT001</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="E4">
-        <v>19485</v>
+        <v>6495</v>
       </c>
     </row>
   </sheetData>
